--- a/data/excel/Robinson Crusoe (version 2)/CHAPTER 15.xlsx
+++ b/data/excel/Robinson Crusoe (version 2)/CHAPTER 15.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCutAudio\ExcelFile\Robinson Crusoe (version 2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataBackUpOnGitHub\CutAudio\CutAudio.github.io\data\excel\Robinson Crusoe (version 2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t xml:space="preserve">  After I had been two or three days returned to my castle, I thought that, in order to bring Friday off from his horrid way of feeding, and from the relish of a cannibal’s stomach, I ought to let him taste other flesh; so I took him out with me one morning to the woods.</t>
   </si>
@@ -92,54 +92,12 @@
     <t xml:space="preserve"> I had a mind once to try if he had any inclination for his own country again; and having taught him English so well that he could answer me almost any question, I asked him whether the nation that he belonged to never conquered in battle?</t>
   </si>
   <si>
-    <t>At which he smiled, and said—“Yes, yes, we always fight the better;” that is, he meant always get the better in fight; and so we began the following discourse:—  _Master_.—You always fight the better; how came you to be taken prisoner, then, Friday?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Friday_.—My nation beat much for all that.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—How beat?</t>
-  </si>
-  <si>
     <t>If your nation beat them, how came you to be taken?</t>
   </si>
   <si>
-    <t xml:space="preserve"> _Friday_.—They more many than my nation, in the place where me was; they take one, two, three, and me: my nation over beat them in the yonder place, where me no was; there my nation take one, two, great thousand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—But why did not your side recover you from the hands of your enemies, then?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Friday_.—They run, one, two, three, and me, and make go in the canoe; my nation have no canoe that time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—Well, Friday, and what does your nation do with the men they take?</t>
-  </si>
-  <si>
     <t>Do they carry them away and eat them, as these did?</t>
   </si>
   <si>
-    <t xml:space="preserve"> _Friday_.—Yes, my nation eat mans too; eat all up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—Where do they carry them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Friday_.—Go to other place, where they think.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—Do they come hither?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Friday_.—Yes, yes, they come hither; come other else place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Master_.—Have you been here with them?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> _Friday_.—Yes, I have been here (points to the NW.</t>
-  </si>
-  <si>
     <t>side of the island, which, it seems, was their side).</t>
   </si>
   <si>
@@ -170,9 +128,6 @@
     <t xml:space="preserve"> I inquired if he could tell me how I might go from this island, and get among those white men.</t>
   </si>
   <si>
-    <t>He told me, “Yes, yes, you may go in two canoe.” I could not understand what he meant, or make him describe to me what he meant by two canoe, till at last, with great difficulty, I found he meant it must be in a large boat, as big as two canoes.</t>
-  </si>
-  <si>
     <t>This part of Friday’s discourse I began to relish very well; and from this time I entertained some hopes that, one time or other, I might find an opportunity to make my escape from this place, and that this poor savage might be a means to help me.</t>
   </si>
   <si>
@@ -182,18 +137,6 @@
     <t>The creature did not understand me at all, but thought I had asked who was his father—but I took it up by another handle, and asked him who made the sea, the ground we walked on, and the hills and woods.</t>
   </si>
   <si>
-    <t>He told me, “It was one Benamuckee, that lived beyond all;” he could describe nothing of this great person, but that he was very old, “much older,” he said, “than the sea or land, than the moon or the stars.” I asked him then, if this old person had made all things, why did not all things worship him?</t>
-  </si>
-  <si>
-    <t>He looked very grave, and, with a perfect look of innocence, said, “All things say O to him.” I asked him if the people who die in his country went away anywhere?</t>
-  </si>
-  <si>
-    <t>He said, “Yes; they all went to Benamuckee.” Then I asked him whether those they eat up went thither too.</t>
-  </si>
-  <si>
-    <t>He said, “Yes.”  From these things, I began to instruct him in the knowledge of the true God; I told him that the great Maker of all things lived up there, pointing up towards heaven; that He governed the world by the same power and providence by which He made it; that He was omnipotent, and could do everything for us, give everything to us, take everything from us; and thus, by degrees, I opened his eyes.</t>
-  </si>
-  <si>
     <t>He listened with great attention, and received with pleasure the notion of Jesus Christ being sent to redeem us; and of the manner of making our prayers to God, and His being able to hear us, even in heaven.</t>
   </si>
   <si>
@@ -224,15 +167,6 @@
     <t>After this I had been telling him how the devil was God’s enemy in the hearts of men, and used all his malice and skill to defeat the good designs of Providence, and to ruin the kingdom of Christ in the world, and the like.</t>
   </si>
   <si>
-    <t>“Well,” says Friday, “but you say God is so strong, so great; is He not much strong, much might as the devil?” “Yes, yes,” says I, “Friday; God is stronger than the devil—God is above the devil, and therefore we pray to God to tread him down under our feet, and enable us to resist his temptations and quench his fiery darts.” “But,” says he again, “if God much stronger, much might as the wicked devil, why God no kill the devil, so make him no more do wicked?” I was strangely surprised at this question; and, after all, though I was now an old man, yet I was but a young doctor, and ill qualified for a casuist or a solver of difficulties; and at first I could not tell what to say; so I pretended not to hear him, and asked him what he said; but he was too earnest for an answer to forget his question, so that he repeated it in the very same broken words as above.</t>
-  </si>
-  <si>
-    <t>By this time I had recovered myself a little, and I said, “God will at last punish him severely; he is reserved for the judgment, and is to be cast into the bottomless pit, to dwell with everlasting fire.” This did not satisfy Friday; but he returns upon me, repeating my words, “‘_Reserve at last_!’ me no understand—but why not kill the devil now; not kill great ago?” “You may as well ask me,” said I, “why God does not kill you or me, when we do wicked things here that offend Him—we are preserved to repent and be pardoned.” He mused some time on this.</t>
-  </si>
-  <si>
-    <t>“Well, well,” says he, mighty affectionately, “that well—so you, I, devil, all wicked, all preserve, repent, God pardon all.” Here I was run down again by him to the last degree; and it was a testimony to me, how the mere notions of nature, though they will guide reasonable creatures to the knowledge of a God, and of a worship or homage due to the supreme being of God, as the consequence of our nature, yet nothing but divine revelation can form the knowledge of Jesus Christ, and of redemption purchased for us; of a Mediator of the new covenant, and of an Intercessor at the footstool of God’s throne; I say, nothing but a revelation from Heaven can form these in the soul; and that, therefore, the gospel of our Lord and Saviour Jesus Christ, I mean the Word of God, and the Spirit of God, promised for the guide and sanctifier of His people, are the absolutely necessary instructors of the souls of men in the saving knowledge of God and the means of salvation.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> I therefore diverted the present discourse between me and my man, rising up hastily, as upon some sudden occasion of going out; then sending him for something a good way off, I seriously prayed to God that He would enable me to instruct savingly this poor savage; assisting, by His Spirit, the heart of the poor ignorant creature to receive the light of the knowledge of God in Christ, reconciling him to Himself, and would guide me so to speak to him from the Word of God that his conscience might be convinced, his eyes opened, and his soul saved.</t>
   </si>
   <si>
@@ -302,27 +236,15 @@
     <t>I asked him what it was he studied upon.</t>
   </si>
   <si>
-    <t>At last says he, “Me see such boat like come to place at my nation.” I did not understand him a good while; but at last, when I had examined further into it, I understood by him that a boat, such as that had been, came on shore upon the country where he lived: that is, as he explained it, was driven thither by stress of weather.</t>
-  </si>
-  <si>
     <t>I presently imagined that some European ship must have been cast away upon their coast, and the boat might get loose and drive ashore; but was so dull that I never once thought of men making their escape from a wreck thither, much less whence they might come: so I only inquired after a description of the boat.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Friday described the boat to me well enough; but brought me better to understand him when he added with some warmth, “We save the white mans from drown.” Then I presently asked if there were any white mans, as he called them, in the boat.</t>
-  </si>
-  <si>
-    <t>“Yes,” he said; “the boat full of white mans.” I asked him how many.</t>
-  </si>
-  <si>
     <t>He told upon his fingers seventeen.</t>
   </si>
   <si>
     <t>I asked him then what became of them.</t>
   </si>
   <si>
-    <t>He told me, “They live, they dwell at my nation.”  This put new thoughts into my head; for I presently imagined that these might be the men belonging to the ship that was cast away in the sight of my island, as I now called it; and who, after the ship was struck on the rock, and they saw her inevitably lost, had saved themselves in their boat, and were landed upon that wild shore among the savages.</t>
-  </si>
-  <si>
     <t>Upon this I inquired of him more critically what was become of them.</t>
   </si>
   <si>
@@ -359,12 +281,6 @@
     <t xml:space="preserve"> While my jealousy of him lasted, you may be sure I was every day pumping him to see if he would discover any of the new thoughts which I suspected were in him; but I found everything he said was so honest and so innocent, that I could find nothing to nourish my suspicion; and in spite of all my uneasiness, he made me at last entirely his own again; nor did he in the least perceive that I was uneasy, and therefore I could not suspect him of deceit.</t>
   </si>
   <si>
-    <t xml:space="preserve"> One day, walking up the same hill, but the weather being hazy at sea, so that we could not see the continent, I called to him, and said, “Friday, do not you wish yourself in your own country, your own nation?” “Yes,” he said, “I be much O glad to be at my own nation.” “What would you do there?” said I.</t>
-  </si>
-  <si>
-    <t>“Would you turn wild again, eat men’s flesh again, and be a savage as you were before?” He looked full of concern, and shaking his head, said, “No, no, Friday tell them to live good; tell them to pray God; tell them to eat corn bread, cattle flesh, milk; no eat man again.” “Why, then,” said I to him, “they will kill you.” He looked grave at that, and then said, “No, no, they no kill me, they willing love learn.” He meant by this, they would be willing to learn.</t>
-  </si>
-  <si>
     <t>He added, they learned much of the bearded mans that came in the boat.</t>
   </si>
   <si>
@@ -380,9 +296,6 @@
     <t>He told me he would go if I would go with him.</t>
   </si>
   <si>
-    <t>“I go!” says I; “why, they will eat me if I come there.” “No, no,” says he, “me make they no eat you; me make they much love you.” He meant, he would tell them how I had killed his enemies, and saved his life, and so he would make them love me.</t>
-  </si>
-  <si>
     <t>Then he told me, as well as he could, how kind they were to seventeen white men, or bearded men, as he called them who came on shore there in distress.</t>
   </si>
   <si>
@@ -411,6 +324,150 @@
   </si>
   <si>
     <t>text</t>
+  </si>
+  <si>
+    <t>He told me, “Yes, yes, you may go in two canoe.”</t>
+  </si>
+  <si>
+    <t>I could not understand what he meant, or make him describe to me what he meant by two canoe, till at last, with great difficulty, I found he meant it must be in a large boat, as big as two canoes.</t>
+  </si>
+  <si>
+    <t>I asked him then, if this old person had made all things, why did not all things worship him?</t>
+  </si>
+  <si>
+    <t>I asked him if the people who die in his country went away anywhere?</t>
+  </si>
+  <si>
+    <t>Then I asked him whether those they eat up went thither too.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> From these things, I began to instruct him in the knowledge of the true God; I told him that the great Maker of all things lived up there, pointing up towards heaven; that He governed the world by the same power and providence by which He made it; that He was omnipotent, and could do everything for us, give everything to us, take everything from us; and thus, by degrees, I opened his eyes.</t>
+  </si>
+  <si>
+    <t>“But,” says he again, “if God much stronger, much might as the wicked devil, why God no kill the devil, so make him no more do wicked?” I was strangely surprised at this question; and, after all, though I was now an old man, yet I was but a young doctor, and ill qualified for a casuist or a solver of difficulties; and at first I could not tell what to say; so I pretended not to hear him, and asked him what he said; but he was too earnest for an answer to forget his question, so that he repeated it in the very same broken words as above.</t>
+  </si>
+  <si>
+    <t>He mused some time on this.</t>
+  </si>
+  <si>
+    <t>Here I was run down again by him to the last degree; and it was a testimony to me, how the mere notions of nature, though they will guide reasonable creatures to the knowledge of a God, and of a worship or homage due to the supreme being of God, as the consequence of our nature, yet nothing but divine revelation can form the knowledge of Jesus Christ, and of redemption purchased for us; of a Mediator of the new covenant, and of an Intercessor at the footstool of God’s throne; I say, nothing but a revelation from Heaven can form these in the soul; and that, therefore, the gospel of our Lord and Saviour Jesus Christ, I mean the Word of God, and the Spirit of God, promised for the guide and sanctifier of His people, are the absolutely necessary instructors of the souls of men in the saving knowledge of God and the means of salvation.</t>
+  </si>
+  <si>
+    <t>I did not understand him a good while; but at last, when I had examined further into it, I understood by him that a boat, such as that had been, came on shore upon the country where he lived: that is, as he explained it, was driven thither by stress of weather.</t>
+  </si>
+  <si>
+    <t>Then I presently asked if there were any white mans, as he called them, in the boat.</t>
+  </si>
+  <si>
+    <t>I asked him how many.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This put new thoughts into my head; for I presently imagined that these might be the men belonging to the ship that was cast away in the sight of my island, as I now called it; and who, after the ship was struck on the rock, and they saw her inevitably lost, had saved themselves in their boat, and were landed upon that wild shore among the savages.</t>
+  </si>
+  <si>
+    <t>“What would you do there?” said I.</t>
+  </si>
+  <si>
+    <t>He meant by this, they would be willing to learn.</t>
+  </si>
+  <si>
+    <t>He meant, he would tell them how I had killed his enemies, and saved his life, and so he would make them love me.</t>
+  </si>
+  <si>
+    <t>He told me, “It was one Benamuckee, that lived beyond all;” he could describe nothing of this great person, but that he was very old, “much older,” he said, “than the sea or land, than the moon or the stars.”</t>
+  </si>
+  <si>
+    <t>He looked very grave, and, with a perfect look of innocence, said, “All things say O to him.”</t>
+  </si>
+  <si>
+    <t>He said, “Yes; they all went to Benamuckee.”</t>
+  </si>
+  <si>
+    <t>He said, “Yes.”</t>
+  </si>
+  <si>
+    <t>“Well,” says Friday, “but you say God is so strong, so great; is He not much strong, much might as the devil?” “Yes, yes,” says I, “Friday; God is stronger than the devil—God is above the devil, and therefore we pray to God to tread him down under our feet, and enable us to resist his temptations and quench his fiery darts.”</t>
+  </si>
+  <si>
+    <t>By this time I had recovered myself a little, and I said, “God will at last punish him severely; he is reserved for the judgment, and is to be cast into the bottomless pit, to dwell with everlasting fire.”</t>
+  </si>
+  <si>
+    <t>“Well, well,” says he, mighty affectionately, “that well—so you, I, devil, all wicked, all preserve, repent, God pardon all.”</t>
+  </si>
+  <si>
+    <t>At last says he, “Me see such boat like come to place at my nation.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Friday described the boat to me well enough; but brought me better to understand him when he added with some warmth, “We save the white mans from drown.”</t>
+  </si>
+  <si>
+    <t>“Yes,” he said; “the boat full of white mans.”</t>
+  </si>
+  <si>
+    <t>He told me, “They live, they dwell at my nation.”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> One day, walking up the same hill, but the weather being hazy at sea, so that we could not see the continent, I called to him, and said, “Friday, do not you wish yourself in your own country, your own nation?” “Yes,” he said, “I be much O glad to be at my own nation.”</t>
+  </si>
+  <si>
+    <t>“Would you turn wild again, eat men’s flesh again, and be a savage as you were before?” He looked full of concern, and shaking his head, said, “No, no, Friday tell them to live good; tell them to pray God; tell them to eat corn bread, cattle flesh, milk; no eat man again.”</t>
+  </si>
+  <si>
+    <t>“Why, then,” said I to him, “they will kill you.”</t>
+  </si>
+  <si>
+    <t>He looked grave at that, and then said, “No, no, they no kill me, they willing love learn.”</t>
+  </si>
+  <si>
+    <t>“I go!” says I; “why, they will eat me if I come there.”</t>
+  </si>
+  <si>
+    <t>“No, no,” says he, “me make they no eat you; me make they much love you.”</t>
+  </si>
+  <si>
+    <t>At which he smiled, and said—“Yes, yes, we always fight the better;” that is, he meant always get the better in fight; and so we began the following discourse:— Master.—You always fight the better; how came you to be taken prisoner, then, Friday?</t>
+  </si>
+  <si>
+    <t>Friday.—My nation beat much for all that.</t>
+  </si>
+  <si>
+    <t>Master.—How beat?</t>
+  </si>
+  <si>
+    <t>Friday.—They more many than my nation, in the place where me was; they take one, two, three, and me: my nation over beat them in the yonder place, where me no was; there my nation take one, two, great thousand.</t>
+  </si>
+  <si>
+    <t>Master.—But why did not your side recover you from the hands of your enemies, then?</t>
+  </si>
+  <si>
+    <t>Friday.—They run, one, two, three, and me, and make go in the canoe; my nation have no canoe that time.</t>
+  </si>
+  <si>
+    <t>Master.—Well, Friday, and what does your nation do with the men they take?</t>
+  </si>
+  <si>
+    <t>Friday.—Yes, my nation eat mans too; eat all up.</t>
+  </si>
+  <si>
+    <t>Master.—Where do they carry them?</t>
+  </si>
+  <si>
+    <t>Friday.—Go to other place, where they think.</t>
+  </si>
+  <si>
+    <t>Master.—Do they come hither?</t>
+  </si>
+  <si>
+    <t>Friday.—Yes, yes, they come hither; come other else place.</t>
+  </si>
+  <si>
+    <t>Master.—Have you been here with them?</t>
+  </si>
+  <si>
+    <t>Friday.—Yes, I have been here (points to the NW.</t>
+  </si>
+  <si>
+    <t>This did not satisfy Friday; but he returns upon me, repeating my words, “‘Reserve at last!’ me no understand—but why not kill the devil now; not kill great ago?” “You may as well ask me,” said I, “why God does not kill you or me, when we do wicked things here that offend Him—we are preserved to repent and be pardoned.”</t>
   </si>
 </sst>
 </file>
@@ -728,20 +785,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B128"/>
+  <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -925,7 +982,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +998,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +1006,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +1014,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +1022,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +1030,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +1046,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +1054,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1062,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1070,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1078,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1086,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1094,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1102,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1110,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1118,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1126,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1134,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1142,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1150,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1158,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1166,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1174,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,639 +1182,788 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>126</v>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
